--- a/数据模版，要跟软件配合使用/航空器-中型TYA.xlsx
+++ b/数据模版，要跟软件配合使用/航空器-中型TYA.xlsx
@@ -257,7 +257,7 @@
     <t>翼飞特E616</t>
   </si>
   <si>
-    <t>珠海金凤路</t>
+    <t>海边</t>
   </si>
   <si>
     <t>夜间</t>
@@ -1388,8 +1388,8 @@
   <sheetPr/>
   <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83185840707965" defaultRowHeight="13.85"/>
